--- a/2017ACM.xlsx
+++ b/2017ACM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11310" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,20 @@
   </si>
   <si>
     <t>回文数位dp，一个进制一个进制地算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举二进制位，把当前为0的和当前为1的分成两个集合,求一次最短路</t>
+  </si>
+  <si>
+    <t>不修改可以(lgn)^2求出，若修改点x，则维护f(x),f(x/2),f(x/4)……，f(x)表示以x为根的子树的最大值(代码改了好久）</t>
+  </si>
+  <si>
+    <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,17 +217,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -542,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -710,8 +722,14 @@
       <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>1001</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -742,8 +760,14 @@
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>1006</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:5">

--- a/2017ACM.xlsx
+++ b/2017ACM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
   <si>
     <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,93 @@
   </si>
   <si>
     <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUTC10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读入优化（fread(buf, 1, BUF_SIZE-1, stdin);）；增加一条边可以覆盖两只猴子较优，找出覆盖两只猴子的最大边数，剩下的增加一条边只增加一个点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案的差异在于空隙，空隙越小越好；所以按start从小到大排序，相同按end小的排序；加入满足条件的机器，不满足增加一个机器(优先加到end时间最大的机器里，这样可以减少空隙）</t>
+  </si>
+  <si>
+    <t>找第二短的路（可以往返走）；显然最多往返走一次。答案是 有条边不在最短路里的最短路，或者是 最短路上的某条边*3</t>
+  </si>
+  <si>
+    <t>双向BFS</t>
+  </si>
+  <si>
+    <t>cf844</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>询问 start和随机999个数，再从&lt;x的最大的数出发，错误的概率是（1-999/n)^1000=1.7*(10^-9);我在比赛的时候n=1没考虑；订正的时候srand没加！！</t>
+  </si>
+  <si>
+    <t>每个元素排序前后的位置都是固定的，从排序前位置指向排序后的位置会形成简单环，环的个数就是最大次数</t>
+  </si>
+  <si>
+    <t>每次选择一个子序列（不重不漏）递增排序，使得最终结果是递增的，问最大次数。（n&lt;=100000)</t>
+  </si>
+  <si>
+    <t>交互题（第一次做）。递增单向链表（n&lt;=50000)，问&gt;=x的值。每次询问返回值和下个位置的索引，最多只能询问2000次</t>
+  </si>
+  <si>
+    <t>水题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将树通过指定方法转化成所有点对距离平方最小的树，&lt;=2*n步转化</t>
+  </si>
+  <si>
+    <t>找到树的重心(n为奇数只有1个，n为偶数有两个),重心的儿子转化成菊花状的最优</t>
+  </si>
+  <si>
+    <t>2017集训队论文，板子题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok，2017.8.26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +287,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +315,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -249,10 +343,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -552,20 +647,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -576,34 +671,34 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="C2">
         <v>1005</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="C3">
         <v>1008</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="C4">
         <v>1011</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="B6" t="s">
         <v>31</v>
       </c>
@@ -613,60 +708,60 @@
       <c r="D6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="C7">
         <v>1004</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="C8">
         <v>1007</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="C9">
         <v>1009</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="C10">
         <v>1011</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="C11">
         <v>1012</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="B13" t="s">
         <v>32</v>
       </c>
@@ -674,51 +769,51 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="C14">
         <v>1002</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="C15">
         <v>1006</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="C16">
         <v>1008</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:6">
       <c r="C17">
         <v>1011</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:6">
       <c r="B19" t="s">
         <v>33</v>
       </c>
@@ -728,71 +823,71 @@
       <c r="D19" t="s">
         <v>44</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:6">
       <c r="C20">
         <v>1002</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:6">
       <c r="C21">
         <v>1004</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:6">
       <c r="C22">
         <v>1005</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:6">
       <c r="C23" s="1">
         <v>1006</v>
       </c>
       <c r="D23" t="s">
         <v>41</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:6">
       <c r="C24">
         <v>1008</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:6">
       <c r="C25">
         <v>1010</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:6">
       <c r="B27" t="s">
         <v>16</v>
       </c>
@@ -802,71 +897,71 @@
       <c r="D27" t="s">
         <v>11</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:6">
       <c r="C28" t="s">
         <v>18</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:6">
       <c r="C29" t="s">
         <v>19</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:6">
       <c r="C30" t="s">
         <v>20</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:6">
       <c r="C31" t="s">
         <v>21</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:6">
       <c r="C32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="1:6">
       <c r="C33" t="s">
         <v>23</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:5">
+    <row r="35" spans="1:6">
       <c r="B35" t="s">
         <v>34</v>
       </c>
@@ -876,73 +971,201 @@
       <c r="D35" t="s">
         <v>11</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="2:5">
+    <row r="36" spans="1:6">
       <c r="C36">
         <v>1003</v>
       </c>
       <c r="D36" t="s">
         <v>11</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" spans="1:6">
       <c r="C37">
         <v>1004</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="2:5">
+    <row r="38" spans="1:6">
       <c r="C38">
         <v>1005</v>
       </c>
       <c r="D38" t="s">
         <v>11</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="2:5">
+    <row r="39" spans="1:6">
       <c r="C39">
         <v>1006</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="2:5">
+    <row r="40" spans="1:6">
       <c r="C40">
         <v>1007</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="2:5">
-      <c r="C41">
+    <row r="41" spans="1:6">
+      <c r="C41" s="3">
         <v>1008</v>
       </c>
     </row>
-    <row r="42" spans="2:5">
-      <c r="C42">
+    <row r="42" spans="1:6">
+      <c r="C42" s="3">
         <v>1009</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44">
+        <v>1001</v>
+      </c>
+      <c r="D44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="C45">
+        <v>1002</v>
+      </c>
+      <c r="D45" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="C46">
+        <v>1008</v>
+      </c>
+      <c r="D46" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="C47">
+        <v>1010</v>
+      </c>
+      <c r="D47" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="C48">
+        <v>1011</v>
+      </c>
+      <c r="D48" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="C52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="C53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="C54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" t="s">
+        <v>65</v>
+      </c>
+      <c r="F54" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/2017ACM.xlsx
+++ b/2017ACM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
   <si>
     <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,13 +281,20 @@
   <si>
     <t>ok，2017.8.26</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok,2017.8.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平面几何，暴力模拟反射</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,6 +329,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -343,11 +357,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -649,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -842,6 +857,12 @@
       <c r="C21">
         <v>1004</v>
       </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="22" spans="2:6">
       <c r="C22">
@@ -946,7 +967,7 @@
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="C32" t="s">
+      <c r="C32" s="4" t="s">
         <v>22</v>
       </c>
     </row>

--- a/2017ACM.xlsx
+++ b/2017ACM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
   <si>
     <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +288,16 @@
   </si>
   <si>
     <t>平面几何，暴力模拟反射</t>
+  </si>
+  <si>
+    <t>ok,2017.8.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预处理出所有答案。i%j=i-i/j*j, 枚举j和k=i/j,则[kj,(k+1)j)可加到答案[0,j)里，因为模2意义下加法可以用异或实现，压位累加（有点类似分块）</t>
+  </si>
+  <si>
+    <t>给定数组a,b(n&lt;=50000),和q(&lt;=50000)个询问,问a[i]%b[j]=k的个数</t>
   </si>
 </sst>
 </file>
@@ -662,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -675,7 +685,7 @@
     <col min="6" max="6" width="20.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -686,12 +696,12 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="C2">
         <v>1005</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="C3">
         <v>1008</v>
       </c>
@@ -702,7 +712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="C4">
         <v>1011</v>
       </c>
@@ -713,7 +723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="B6" t="s">
         <v>31</v>
       </c>
@@ -727,7 +737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="C7">
         <v>1004</v>
       </c>
@@ -738,7 +748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="C8">
         <v>1007</v>
       </c>
@@ -749,7 +759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="C9">
         <v>1009</v>
       </c>
@@ -760,7 +770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="C10">
         <v>1011</v>
       </c>
@@ -771,20 +781,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="C11">
         <v>1012</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="B13" t="s">
         <v>32</v>
       </c>
       <c r="C13">
         <v>1001</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="C14">
         <v>1002</v>
       </c>
@@ -795,7 +814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="C15">
         <v>1006</v>
       </c>
@@ -806,7 +825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="C16">
         <v>1008</v>
       </c>

--- a/2017ACM.xlsx
+++ b/2017ACM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="102">
   <si>
     <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,6 +298,101 @@
   </si>
   <si>
     <t>给定数组a,b(n&lt;=50000),和q(&lt;=50000)个询问,问a[i]%b[j]=k的个数</t>
+  </si>
+  <si>
+    <t>理解不了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.9.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cf849</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接判断头尾和总长度是不是奇数就可以了（虽然我写了个dp还没过）</t>
+  </si>
+  <si>
+    <t>判断所有的(i,a[i])能否被两条平行线覆盖，其中每条线至少要覆盖一个点。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.第一个点要么是单独的一个点，要么是在一条线上，依此搞一搞；2.考虑前三个点，三者情况分别考虑O(n)</t>
+  </si>
+  <si>
+    <t>简单的构造题，构造题目中公式=K的一种方案</t>
+  </si>
+  <si>
+    <t>各个字符相互独立，且个数可算，搞一搞就好了。注意K=0,也要输出</t>
+  </si>
+  <si>
+    <t>X轴、Y轴上分别有舞者，分别朝正向走，相遇会交换方向，求最终舞者停止的位置</t>
+  </si>
+  <si>
+    <t>p-t 相同的为1类，在图上画画很容易得出结论~</t>
+  </si>
+  <si>
+    <t>Difference between last occurrence and first occurrence equals the sum of differences between pairs of adjacent occurrences. Handle this with some segment tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                给定一个数组n，和若干询问Q, (n,Q&lt;=1e5, a[i]&lt;=1e5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                1.修改位置的值，变成x(1&lt;=x&lt;=n);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                2.询问区间内 同一个值第一次出现和最后一次出现的差值 的和。</t>
+  </si>
+  <si>
+    <t>线段树套树状数组（第一次写，改了好久QAQ）。首先，对于同一个值在区间内的差值可以转化为相邻位置的差值之和。所以对于询问[l,r]，答案是sigma{i-pre[i]},其中pre[i]&gt;=l。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            建一棵序号线段树，每个节点建一棵数值树状数组；每次询问 树状数组给出val&gt;=的值.需要用数据结构维护一下额外的东西</t>
+  </si>
+  <si>
+    <t>cf842</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水题</t>
+  </si>
+  <si>
+    <t>给定一棵树(n&lt;=2e5)，根为1，问i节点到根的路径上，除去一个点或者不除去，gcd最大是多少</t>
+  </si>
+  <si>
+    <t>树形dp.dp[i][2]，0表示不除去，1表示已经除去了一个点，转移即可</t>
+  </si>
+  <si>
+    <t>给定数组A和Q个询问(n,Q&lt;=3e5),询问有两种：1.对所有元素异或x;2. 求mex(A)</t>
+  </si>
+  <si>
+    <t>mask表示询问到当前的异或和，对数组A建立01树，异或mask查找最小的未出现的元素即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -672,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -785,6 +880,9 @@
       <c r="C11">
         <v>1012</v>
       </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="B13" t="s">
@@ -1141,7 +1239,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="1:6">
       <c r="B50" t="s">
         <v>52</v>
       </c>
@@ -1155,7 +1253,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="1:6">
       <c r="C51" t="s">
         <v>54</v>
       </c>
@@ -1166,7 +1264,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="2:6">
+    <row r="52" spans="1:6">
       <c r="C52" t="s">
         <v>55</v>
       </c>
@@ -1180,7 +1278,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="2:6">
+    <row r="53" spans="1:6">
       <c r="C53" t="s">
         <v>56</v>
       </c>
@@ -1194,7 +1292,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="2:6">
+    <row r="54" spans="1:6">
       <c r="C54" t="s">
         <v>57</v>
       </c>
@@ -1206,6 +1304,155 @@
       </c>
       <c r="F54" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" t="s">
+        <v>81</v>
+      </c>
+      <c r="F56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="C57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" t="s">
+        <v>84</v>
+      </c>
+      <c r="F57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="C58" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" t="s">
+        <v>81</v>
+      </c>
+      <c r="E58" t="s">
+        <v>86</v>
+      </c>
+      <c r="F58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="C59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" t="s">
+        <v>88</v>
+      </c>
+      <c r="F59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="C60" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60" t="s">
+        <v>90</v>
+      </c>
+      <c r="F60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="E61" t="s">
+        <v>91</v>
+      </c>
+      <c r="F61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="E62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="E63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" t="s">
+        <v>96</v>
+      </c>
+      <c r="C65" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65" t="s">
+        <v>81</v>
+      </c>
+      <c r="F65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="C66" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" t="s">
+        <v>81</v>
+      </c>
+      <c r="F66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="C67" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" t="s">
+        <v>81</v>
+      </c>
+      <c r="E67" t="s">
+        <v>98</v>
+      </c>
+      <c r="F67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="C68" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68" t="s">
+        <v>81</v>
+      </c>
+      <c r="E68" t="s">
+        <v>100</v>
+      </c>
+      <c r="F68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="C69" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/2017ACM.xlsx
+++ b/2017ACM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="122">
   <si>
     <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -393,6 +393,75 @@
   <si>
     <t>mask表示询问到当前的异或和，对数组A建立01树，异或mask查找最小的未出现的元素即可</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.9.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cf851</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC共线不行。这个点必定在AB，BC的中垂线上，又因为角度相同，AB=BC</t>
+  </si>
+  <si>
+    <t>已知三个点，问是否存在一个点和一个角度，使得A能旋转到B，B旋转到C</t>
+  </si>
+  <si>
+    <t>n(n&lt;=1000)个5维向量，如果向量ab和向量ac的夹角为锐角，那么a是bad；问有哪几个good点</t>
+  </si>
+  <si>
+    <t>刷uoj裙刷到了解法。O(n^3)暴力判断有锐角直接bad,可以过的，。。</t>
+  </si>
+  <si>
+    <t>n(n&lt;=5e5)个数,通过下面两种操作将其变成空或者gcd&gt;1的最小代价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                2.一个数加1(可以加无限次)，花费y</t>
+  </si>
+  <si>
+    <t>还是筛法的模板啊，只要跟gcd有关的就可以套筛法。枚举gcd, (kd,(k+1)*d]这个区间分成前后两段，前一段用删数</t>
+  </si>
+  <si>
+    <t>，后一段+1,前缀和统计。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            我比赛的时候d=5时,3,4都只加了1次,可能脑子混了。过了pp，但wa了。</t>
+  </si>
+  <si>
+    <t>博弈题，给n(n&lt;=100)个数，每一轮选手可以选择p^k(p是质数，k是正数）,p^k是n个数中至少一个数的因子，这些数除掉p^k。不能选择p^k的人输</t>
+  </si>
+  <si>
+    <t>质数间互不影响，每个质数看成是一个局面,最后结果是所有局面的异或和。对于每个质数用mask记录出现次数的状态，枚举子状态x&gt;&gt;i|x&amp;((1&lt;&lt;i)-1)，用mex计算</t>
   </si>
 </sst>
 </file>
@@ -767,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1397,7 +1466,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="2:6">
+    <row r="65" spans="1:6">
       <c r="B65" t="s">
         <v>96</v>
       </c>
@@ -1411,7 +1480,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="2:6">
+    <row r="66" spans="1:6">
       <c r="C66" t="s">
         <v>78</v>
       </c>
@@ -1422,7 +1491,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="2:6">
+    <row r="67" spans="1:6">
       <c r="C67" t="s">
         <v>79</v>
       </c>
@@ -1436,7 +1505,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="2:6">
+    <row r="68" spans="1:6">
       <c r="C68" t="s">
         <v>80</v>
       </c>
@@ -1450,9 +1519,95 @@
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" spans="1:6">
       <c r="C69" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71" t="s">
+        <v>103</v>
+      </c>
+      <c r="C71" t="s">
+        <v>104</v>
+      </c>
+      <c r="D71" t="s">
+        <v>109</v>
+      </c>
+      <c r="F71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="C72" t="s">
+        <v>105</v>
+      </c>
+      <c r="D72" t="s">
+        <v>109</v>
+      </c>
+      <c r="E72" t="s">
+        <v>112</v>
+      </c>
+      <c r="F72" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="C73" t="s">
+        <v>106</v>
+      </c>
+      <c r="D73" t="s">
+        <v>109</v>
+      </c>
+      <c r="E73" t="s">
+        <v>113</v>
+      </c>
+      <c r="F73" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="C74" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" t="s">
+        <v>109</v>
+      </c>
+      <c r="E74" t="s">
+        <v>115</v>
+      </c>
+      <c r="F74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="C75" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75" t="s">
+        <v>109</v>
+      </c>
+      <c r="E75" t="s">
+        <v>120</v>
+      </c>
+      <c r="F75" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="E76" t="s">
+        <v>116</v>
+      </c>
+      <c r="F76" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="F77" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/2017ACM.xlsx
+++ b/2017ACM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="141">
   <si>
     <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -462,6 +462,71 @@
   </si>
   <si>
     <t>质数间互不影响，每个质数看成是一个局面,最后结果是所有局面的异或和。对于每个质数用mask记录出现次数的状态，枚举子状态x&gt;&gt;i|x&amp;((1&lt;&lt;i)-1)，用mex计算</t>
+  </si>
+  <si>
+    <t>2017.9.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cf854</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举</t>
+  </si>
+  <si>
+    <t>共n(&lt;=3e5)个飞机，i时间起飞的延迟一个单位需要ci花费。n个飞机延迟到了(k+1)-(k+n)的时间段，问在不早于已知起飞时间的情况下，最小的延迟费用和</t>
+  </si>
+  <si>
+    <t>贪心，最先飞的花费要尽可能的大。枚举起飞时间，优先队列维护符合条件的最大费用和对应的起飞时间</t>
+  </si>
+  <si>
+    <t>算一算得出结论，但要注意3*K超过int</t>
+  </si>
+  <si>
+    <t>(n+1)个城市，1-n个城市的代表要到0城市开会，并且要开连续k个时间段的会。现已知m组数据，(d,f,t,c),(1&lt;=d&lt;=1e6;0&lt;=f,t&lt;=n;1&lt;=c&lt;=1e6)</t>
+  </si>
+  <si>
+    <t>求前缀和和后缀和，然后枚举开会的开始时间搞一搞.前缀和表示当前n个城市（不一定是n个）到达0城市的最小费用，同时统计是否是n个城市；后缀和类似</t>
+  </si>
+  <si>
+    <t>n*n的网格有n个点，横坐标从1-&gt;n,纵坐标题目输入（也是1-n），n个点各不相同。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              定义beautiful rectangle为矩阵的两个对角分别有两个点(共n*(n-1)/2个矩阵）。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              每次给出一个矩阵左下角(l,d),右上角(r,u)，询问与多少个beautiful rectangle相交</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              n,q&lt;=2e5</t>
+  </si>
+  <si>
+    <t>直接求比较难，考虑总的-不成立的。总的是n*(n-1)/2,不成立的是四个边-四个小角。每次用主席树求解横坐标[l,r]，纵坐标[d,u]内点的个数。</t>
   </si>
 </sst>
 </file>
@@ -836,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1608,6 +1673,97 @@
     <row r="77" spans="1:6">
       <c r="F77" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>122</v>
+      </c>
+      <c r="B79" t="s">
+        <v>123</v>
+      </c>
+      <c r="C79" t="s">
+        <v>124</v>
+      </c>
+      <c r="D79" t="s">
+        <v>129</v>
+      </c>
+      <c r="E79" t="s">
+        <v>97</v>
+      </c>
+      <c r="F79" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="C80" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80" t="s">
+        <v>129</v>
+      </c>
+      <c r="E80" t="s">
+        <v>97</v>
+      </c>
+      <c r="F80" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6">
+      <c r="C81" t="s">
+        <v>126</v>
+      </c>
+      <c r="D81" t="s">
+        <v>129</v>
+      </c>
+      <c r="E81" t="s">
+        <v>131</v>
+      </c>
+      <c r="F81" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6">
+      <c r="C82" t="s">
+        <v>127</v>
+      </c>
+      <c r="D82" t="s">
+        <v>129</v>
+      </c>
+      <c r="E82" t="s">
+        <v>134</v>
+      </c>
+      <c r="F82" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6">
+      <c r="C83" t="s">
+        <v>128</v>
+      </c>
+      <c r="D83" t="s">
+        <v>129</v>
+      </c>
+      <c r="E83" t="s">
+        <v>136</v>
+      </c>
+      <c r="F83" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6">
+      <c r="E84" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6">
+      <c r="E85" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6">
+      <c r="E86" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/2017ACM.xlsx
+++ b/2017ACM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="171">
   <si>
     <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -527,6 +527,115 @@
   </si>
   <si>
     <t>直接求比较难，考虑总的-不成立的。总的是n*(n-1)/2,不成立的是四个边-四个小角。每次用主席树求解横坐标[l,r]，纵坐标[d,u]内点的个数。</t>
+  </si>
+  <si>
+    <t>2017.9.11-2017.9.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poj1743</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分答案K，将height分组，判定组内sa[i]的最大距离&gt;K</t>
+  </si>
+  <si>
+    <t>poj3261</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分答案mid,将height按mid分组，判定组内个数&gt;=K</t>
+  </si>
+  <si>
+    <t>最长不重叠子串，至少重复2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可重叠的k次最长重复子串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spoj694</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不相同的子串个数</t>
+  </si>
+  <si>
+    <t>对(n-sa[i]-height[i])求和,1&lt;=i&lt;=n. n-sa[i]就是当前字符串的长度，-height[i]是和前面重叠部分</t>
+  </si>
+  <si>
+    <t>将正序和反序拼接,设i为中心（奇数长度），则求i-1往前和i+1往后的最长公共子串即可；（偶数同理）</t>
+  </si>
+  <si>
+    <t>最长回文串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ural1297</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poj3693</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复最多的连续子串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复次数为1显然。考虑重复次数&gt;=2,长度l,那么str[0],str[l],str[l+l],...必然有相邻的两个在答案里。</t>
+  </si>
+  <si>
+    <t>poj3415</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定K，字符串A,B(n&lt;=1e5).求公共子串&gt;=K的个数(求长度不小于k的公共子串个数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若子串的lcp是p,则对答案的贡献是p-K+1.那么我们拼接A,B,枚举height,以K分组，枚举到A压入栈中，枚举到B统计个数。B,A类似地统计一遍</t>
+  </si>
+  <si>
+    <t>poj3294</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现在不少于K个字符串的最长子串</t>
+  </si>
+  <si>
+    <t>拼接，二分答案mid, 将height数组分块，若有一块内不同字符串个数&gt;=K，则存在最长子串</t>
+  </si>
+  <si>
+    <t>hdu4552</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪盗基德的挑战书</t>
+  </si>
+  <si>
+    <t>每个后缀和整串求lcp的长度，累加即可（kmp也可以做）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdu4691</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个字符串和k个子串，问k个子串用front compression表示的长度</t>
+  </si>
+  <si>
+    <t>直接求相邻的两个询问起始坐标的lcp，和长度求个min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后缀数组专题（我是按难度倒着做的QAQ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -901,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1709,7 +1818,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="81" spans="3:6">
+    <row r="81" spans="1:6">
       <c r="C81" t="s">
         <v>126</v>
       </c>
@@ -1723,7 +1832,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="82" spans="3:6">
+    <row r="82" spans="1:6">
       <c r="C82" t="s">
         <v>127</v>
       </c>
@@ -1737,7 +1846,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="3:6">
+    <row r="83" spans="1:6">
       <c r="C83" t="s">
         <v>128</v>
       </c>
@@ -1751,19 +1860,151 @@
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="3:6">
+    <row r="84" spans="1:6">
       <c r="E84" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="3:6">
+    <row r="85" spans="1:6">
       <c r="E85" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="86" spans="3:6">
+    <row r="86" spans="1:6">
       <c r="E86" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>141</v>
+      </c>
+      <c r="B88" t="s">
+        <v>170</v>
+      </c>
+      <c r="C88" t="s">
+        <v>142</v>
+      </c>
+      <c r="D88" t="s">
+        <v>143</v>
+      </c>
+      <c r="E88" t="s">
+        <v>147</v>
+      </c>
+      <c r="F88" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="C89" t="s">
+        <v>145</v>
+      </c>
+      <c r="D89" t="s">
+        <v>143</v>
+      </c>
+      <c r="E89" t="s">
+        <v>148</v>
+      </c>
+      <c r="F89" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="C90" t="s">
+        <v>149</v>
+      </c>
+      <c r="D90" t="s">
+        <v>143</v>
+      </c>
+      <c r="E90" t="s">
+        <v>150</v>
+      </c>
+      <c r="F90" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="C91" t="s">
+        <v>154</v>
+      </c>
+      <c r="D91" t="s">
+        <v>143</v>
+      </c>
+      <c r="E91" t="s">
+        <v>153</v>
+      </c>
+      <c r="F91" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="C92" t="s">
+        <v>155</v>
+      </c>
+      <c r="D92" t="s">
+        <v>143</v>
+      </c>
+      <c r="E92" t="s">
+        <v>156</v>
+      </c>
+      <c r="F92" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="C93" t="s">
+        <v>158</v>
+      </c>
+      <c r="D93" t="s">
+        <v>143</v>
+      </c>
+      <c r="E93" t="s">
+        <v>159</v>
+      </c>
+      <c r="F93" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="C94" t="s">
+        <v>161</v>
+      </c>
+      <c r="D94" t="s">
+        <v>143</v>
+      </c>
+      <c r="E94" t="s">
+        <v>162</v>
+      </c>
+      <c r="F94" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="C95" t="s">
+        <v>164</v>
+      </c>
+      <c r="D95" t="s">
+        <v>143</v>
+      </c>
+      <c r="E95" t="s">
+        <v>165</v>
+      </c>
+      <c r="F95" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="C96" t="s">
+        <v>167</v>
+      </c>
+      <c r="D96" t="s">
+        <v>143</v>
+      </c>
+      <c r="E96" t="s">
+        <v>168</v>
+      </c>
+      <c r="F96" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/2017ACM.xlsx
+++ b/2017ACM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="191">
   <si>
     <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -636,6 +636,76 @@
   <si>
     <t>后缀数组专题（我是按难度倒着做的QAQ）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.9.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cf861</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cf861-A,水题</t>
+  </si>
+  <si>
+    <t>cf861-B, 有一个建筑每个楼层的房间数相同，房间号连续，给出m个已知信息，房间号和对应的楼层。询问房间号为n的楼层是否唯一。</t>
+  </si>
+  <si>
+    <t>情况好多做题的时候一时懵逼。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1、已知房间号5在楼层1，那么房间号1肯定也在楼层1；</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        这三种情况没考虑到。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        比赛时候就枚举了房间数，但对于第三个情况房间数不同楼层数相同也是成立的（再加个判断就好了。）</t>
+  </si>
+  <si>
+    <t>cf861-C,水题</t>
+  </si>
+  <si>
+    <t>cf861-D,给定n(&lt;=1e5)个9位数字，问对于每个字符串，唯一标识最少要多少位的子串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力插入字典树，暴力枚举所有可能的方案，得到最小值</t>
+  </si>
+  <si>
+    <t>cf861-E，n(&lt;=1e5)个的数(6位数，a-z0-9)分成两类，放到1-n这n个位置，第一类要放在第二类之前.求最少移动次数及方案</t>
+  </si>
+  <si>
+    <t>若错位的有cnt个数，那么最少移动cnt次，最多移动cnt+1。在1-n之外的最后插空放。在1-n之内错位的能插空的插空放，不能的（肯定是k个第一类错位和k个第二类错位）将其中一个拿出，其他轮着插空放，再把它拿回来</t>
   </si>
 </sst>
 </file>
@@ -1010,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2005,6 +2075,92 @@
       </c>
       <c r="F96" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>171</v>
+      </c>
+      <c r="B98" t="s">
+        <v>172</v>
+      </c>
+      <c r="C98" t="s">
+        <v>173</v>
+      </c>
+      <c r="D98" t="s">
+        <v>178</v>
+      </c>
+      <c r="E98" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="C99" t="s">
+        <v>174</v>
+      </c>
+      <c r="D99" t="s">
+        <v>178</v>
+      </c>
+      <c r="E99" t="s">
+        <v>181</v>
+      </c>
+      <c r="F99" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="C100" t="s">
+        <v>175</v>
+      </c>
+      <c r="D100" t="s">
+        <v>178</v>
+      </c>
+      <c r="E100" t="s">
+        <v>186</v>
+      </c>
+      <c r="F100" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="C101" t="s">
+        <v>176</v>
+      </c>
+      <c r="D101" t="s">
+        <v>178</v>
+      </c>
+      <c r="E101" t="s">
+        <v>187</v>
+      </c>
+      <c r="F101" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="C102" t="s">
+        <v>177</v>
+      </c>
+      <c r="D102" t="s">
+        <v>178</v>
+      </c>
+      <c r="E102" t="s">
+        <v>189</v>
+      </c>
+      <c r="F102" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="C103" t="s">
+        <v>179</v>
+      </c>
+      <c r="F103" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="F104" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/2017ACM.xlsx
+++ b/2017ACM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="201">
   <si>
     <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -706,6 +706,42 @@
   </si>
   <si>
     <t>若错位的有cnt个数，那么最少移动cnt次，最多移动cnt+1。在1-n之外的最后插空放。在1-n之内错位的能插空的插空放，不能的（肯定是k个第一类错位和k个第二类错位）将其中一个拿出，其他轮着插空放，再把它拿回来</t>
+  </si>
+  <si>
+    <t>2017.11.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树形依赖背包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差这一题就AU了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rqnoj30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdu3449</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdu3449,给n(&lt;=50)个背包，每个背包pi价钱，有mi个物品，物品有两个属性pi价钱和vi价值。必须买了背包才能买背包内的物品，问给你w(m&lt;=1e5)块钱，能达到的最大价值</t>
+  </si>
+  <si>
+    <t>将背包看做pi价钱，0价值。再增加一个根节点，连向所有背包。直接套树形依赖背包模板。</t>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rqnoj 30,给一个矿洞和入口0，有n个岔道，从入口出发每个岔道必须留人（才能返回入口，并能挖取宝藏），给m个人，问最多可以挖多少宝藏</t>
+  </si>
+  <si>
+    <t>树形依赖背包入门，O(nm),树形dp的时候dp当前节点u,将u的值传给son并必取son这个点，递归son，返回时将son和u的值合并（表示包含son这个子树和不包含son这个子树的合并）。</t>
   </si>
 </sst>
 </file>
@@ -1080,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+      <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2161,6 +2197,43 @@
     <row r="104" spans="1:6">
       <c r="F104" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>191</v>
+      </c>
+      <c r="B106" t="s">
+        <v>192</v>
+      </c>
+      <c r="C106" t="s">
+        <v>194</v>
+      </c>
+      <c r="D106" t="s">
+        <v>198</v>
+      </c>
+      <c r="E106" t="s">
+        <v>199</v>
+      </c>
+      <c r="F106" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="B107" t="s">
+        <v>193</v>
+      </c>
+      <c r="C107" t="s">
+        <v>195</v>
+      </c>
+      <c r="D107" t="s">
+        <v>198</v>
+      </c>
+      <c r="E107" t="s">
+        <v>196</v>
+      </c>
+      <c r="F107" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/2017ACM.xlsx
+++ b/2017ACM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="216">
   <si>
     <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -742,13 +742,72 @@
   </si>
   <si>
     <t>树形依赖背包入门，O(nm),树形dp的时候dp当前节点u,将u的值传给son并必取son这个点，递归son，返回时将son和u的值合并（表示包含son这个子树和不包含son这个子树的合并）。</t>
+  </si>
+  <si>
+    <t>2017.11.7-2017.11.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-2018 ACM-ICPC, NEERC, Southern Subregional Contest, qualification stage (Online Mirror, ACM-ICPC Rules, Teams Preferred)</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -790,6 +849,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -808,18 +875,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1116,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:O110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F110" sqref="F110"/>
+      <selection activeCell="L112" sqref="L112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2113,7 +2186,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:15">
       <c r="A98" t="s">
         <v>171</v>
       </c>
@@ -2130,7 +2203,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:15">
       <c r="C99" t="s">
         <v>174</v>
       </c>
@@ -2144,7 +2217,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:15">
       <c r="C100" t="s">
         <v>175</v>
       </c>
@@ -2158,7 +2231,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:15">
       <c r="C101" t="s">
         <v>176</v>
       </c>
@@ -2172,7 +2245,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:15">
       <c r="C102" t="s">
         <v>177</v>
       </c>
@@ -2186,7 +2259,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:15">
       <c r="C103" t="s">
         <v>179</v>
       </c>
@@ -2194,12 +2267,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:15">
       <c r="F104" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:15">
       <c r="A106" t="s">
         <v>191</v>
       </c>
@@ -2219,7 +2292,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:15">
       <c r="B107" t="s">
         <v>193</v>
       </c>
@@ -2236,10 +2309,101 @@
         <v>197</v>
       </c>
     </row>
+    <row r="109" spans="1:15">
+      <c r="A109" t="s">
+        <v>201</v>
+      </c>
+      <c r="C109" t="s">
+        <v>203</v>
+      </c>
+      <c r="D109" t="s">
+        <v>204</v>
+      </c>
+      <c r="E109" t="s">
+        <v>205</v>
+      </c>
+      <c r="F109" t="s">
+        <v>206</v>
+      </c>
+      <c r="G109" t="s">
+        <v>207</v>
+      </c>
+      <c r="H109" t="s">
+        <v>208</v>
+      </c>
+      <c r="I109" t="s">
+        <v>209</v>
+      </c>
+      <c r="J109" t="s">
+        <v>210</v>
+      </c>
+      <c r="K109" t="s">
+        <v>211</v>
+      </c>
+      <c r="L109" t="s">
+        <v>212</v>
+      </c>
+      <c r="M109" t="s">
+        <v>213</v>
+      </c>
+      <c r="N109" t="s">
+        <v>214</v>
+      </c>
+      <c r="O109" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="B110" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B110" r:id="rId1" display="http://codeforces.com/contest/847"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
